--- a/accuracies.xlsx
+++ b/accuracies.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uceerjp\Desktop\PhD\Year 2\DeepLearning-on-ALS-MI-Data\Graphs\PLVGAT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uceerjp\Desktop\PhD\Year 2\DeepLearning-on-ALS-MI-Data\Graphs\Motor Imagery - Graph Attention Network\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{615D3096-1D3D-43C5-A4BD-3E2585DA5B86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0979FB9D-DC23-4440-8F42-C9882B1FEBFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{387F8EC4-39BA-4B2A-A359-0BD0A2F45453}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{387F8EC4-39BA-4B2A-A359-0BD0A2F45453}"/>
   </bookViews>
   <sheets>
-    <sheet name="Results" sheetId="1" r:id="rId1"/>
+    <sheet name="Lr = 0.001" sheetId="1" r:id="rId1"/>
+    <sheet name="Lr = 0.0001" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="31">
   <si>
     <t>ALS</t>
   </si>
@@ -45,9 +46,6 @@
   </si>
   <si>
     <t>GCN (Basic)</t>
-  </si>
-  <si>
-    <t>GCN (Similar)</t>
   </si>
   <si>
     <t>CSP</t>
@@ -110,17 +108,35 @@
     <t>EfficientNet</t>
   </si>
   <si>
-    <t>Patience = 10</t>
+    <t>Patience = 50</t>
   </si>
   <si>
-    <t xml:space="preserve">Could be a point of contention, maybe increase? </t>
+    <t>GCN (Similar arthitecture to GAT)</t>
+  </si>
+  <si>
+    <t>GCN (Similar architecture to GAT)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For all the models from Lawhern, we have not updated the internal parts i.e. Temporal Convolutional Lengths or AveragePooling sizes. Could make it scale with the Fs </t>
+  </si>
+  <si>
+    <t>lr = 0.001</t>
+  </si>
+  <si>
+    <t>lr =  0.0001</t>
+  </si>
+  <si>
+    <t>So far on two models it wasn’t…</t>
+  </si>
+  <si>
+    <t>Ziyue Reproduction</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,13 +166,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -172,25 +200,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="30">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -273,6 +314,96 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -328,6 +459,56 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -671,10 +852,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79B464EC-DBE0-45C7-A099-80BA7C63918D}">
-  <dimension ref="A1:AN41"/>
+  <dimension ref="A1:AN49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="76" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -690,166 +871,195 @@
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>15</v>
-      </c>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" t="s">
+        <v>23</v>
+      </c>
+      <c r="R3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R4" t="s">
+        <v>21</v>
+      </c>
+      <c r="T4" t="s">
+        <v>15</v>
+      </c>
+      <c r="V4" t="s">
+        <v>3</v>
+      </c>
+      <c r="X4" t="s">
         <v>18</v>
-      </c>
-      <c r="H4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" t="s">
-        <v>23</v>
-      </c>
-      <c r="L4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N4" t="s">
-        <v>21</v>
-      </c>
-      <c r="P4" t="s">
-        <v>16</v>
-      </c>
-      <c r="R4" t="s">
-        <v>22</v>
-      </c>
-      <c r="T4" t="s">
-        <v>16</v>
-      </c>
-      <c r="V4" t="s">
-        <v>4</v>
-      </c>
-      <c r="X4" t="s">
-        <v>19</v>
       </c>
       <c r="Z4" t="s">
         <v>2</v>
       </c>
       <c r="AB4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AD4" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="AF4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
       <c r="F5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" t="s">
         <v>6</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>7</v>
       </c>
-      <c r="H5" t="s">
-        <v>8</v>
-      </c>
       <c r="J5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" t="s">
         <v>6</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>7</v>
       </c>
-      <c r="L5" t="s">
-        <v>8</v>
-      </c>
       <c r="N5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O5" t="s">
         <v>6</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>7</v>
       </c>
-      <c r="P5" t="s">
-        <v>8</v>
-      </c>
       <c r="R5" t="s">
+        <v>5</v>
+      </c>
+      <c r="S5" t="s">
         <v>6</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>7</v>
       </c>
-      <c r="T5" t="s">
-        <v>8</v>
-      </c>
       <c r="V5" t="s">
+        <v>5</v>
+      </c>
+      <c r="W5" t="s">
         <v>6</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>7</v>
       </c>
-      <c r="X5" t="s">
-        <v>8</v>
-      </c>
       <c r="Z5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA5" t="s">
         <v>6</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>7</v>
       </c>
-      <c r="AB5" t="s">
-        <v>8</v>
-      </c>
       <c r="AD5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE5" t="s">
         <v>6</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AF5" t="s">
         <v>7</v>
       </c>
-      <c r="AF5" t="s">
-        <v>8</v>
-      </c>
       <c r="AH5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI5" t="s">
         <v>6</v>
       </c>
-      <c r="AI5" t="s">
+      <c r="AJ5" t="s">
         <v>7</v>
       </c>
-      <c r="AJ5" t="s">
-        <v>8</v>
-      </c>
       <c r="AL5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM5" t="s">
         <v>6</v>
       </c>
-      <c r="AM5" t="s">
+      <c r="AN5" t="s">
         <v>7</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.3">
@@ -860,25 +1070,46 @@
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
+      <c r="F6" s="7">
+        <v>0.65690000000000004</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0.7419</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0.5625</v>
+      </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
+      <c r="N6" s="3">
+        <v>0.66559999999999997</v>
+      </c>
+      <c r="O6" s="3">
+        <v>0.71879999999999999</v>
+      </c>
+      <c r="P6" s="3">
+        <v>0.5806</v>
+      </c>
       <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="V6" s="8">
+      <c r="R6" s="3">
+        <v>0.61819999999999997</v>
+      </c>
+      <c r="S6" s="3">
+        <v>0.7419</v>
+      </c>
+      <c r="T6" s="3">
+        <v>0.4375</v>
+      </c>
+      <c r="V6" s="7">
         <v>0.45929999999999999</v>
       </c>
-      <c r="W6" s="8">
+      <c r="W6" s="7">
         <v>0.59379999999999999</v>
       </c>
-      <c r="X6" s="8">
+      <c r="X6" s="7">
         <v>0.28120000000000001</v>
       </c>
       <c r="Z6" s="1">
@@ -923,28 +1154,46 @@
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+      <c r="F7" s="7">
+        <v>0.67059999999999997</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0.81820000000000004</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0.60609999999999997</v>
+      </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
+      <c r="N7" s="3">
+        <v>0.60119999999999996</v>
+      </c>
+      <c r="O7" s="3">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="P7" s="3">
+        <v>0.51519999999999999</v>
+      </c>
       <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="V7" s="8">
+      <c r="R7" s="3">
+        <v>0.68569999999999998</v>
+      </c>
+      <c r="S7" s="3">
+        <v>0.78790000000000004</v>
+      </c>
+      <c r="T7" s="3">
+        <v>0.54549999999999998</v>
+      </c>
+      <c r="V7" s="7">
         <v>0.67559999999999998</v>
       </c>
-      <c r="W7" s="8">
+      <c r="W7" s="7">
         <v>0.79410000000000003</v>
       </c>
-      <c r="X7" s="8">
+      <c r="X7" s="7">
         <v>0.55879999999999996</v>
       </c>
       <c r="Z7" s="1">
@@ -989,28 +1238,46 @@
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+      <c r="F8" s="7">
+        <v>0.56930000000000003</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0.7097</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0.4194</v>
+      </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
+      <c r="N8" s="3">
+        <v>0.63339999999999996</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0.7742</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0.4839</v>
+      </c>
       <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="V8" s="8">
+      <c r="R8" s="3">
+        <v>0.5887</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0.7097</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="V8" s="7">
         <v>0.56599999999999995</v>
       </c>
-      <c r="W8" s="8">
+      <c r="W8" s="7">
         <v>0.71879999999999999</v>
       </c>
-      <c r="X8" s="8">
+      <c r="X8" s="7">
         <v>0.40620000000000001</v>
       </c>
       <c r="Z8" s="1">
@@ -1055,28 +1322,46 @@
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
+      <c r="F9" s="7">
+        <v>0.65590000000000004</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0.8387</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0.4839</v>
+      </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
+      <c r="N9" s="3">
+        <v>0.6784</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0.9032</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0.5161</v>
+      </c>
       <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="V9" s="8">
+      <c r="R9" s="3">
+        <v>0.66539999999999999</v>
+      </c>
+      <c r="S9" s="3">
+        <v>0.9355</v>
+      </c>
+      <c r="T9" s="3">
+        <v>0.5161</v>
+      </c>
+      <c r="V9" s="7">
         <v>0.90820000000000001</v>
       </c>
-      <c r="W9" s="8">
+      <c r="W9" s="7">
         <v>0.96879999999999999</v>
       </c>
-      <c r="X9" s="8">
+      <c r="X9" s="7">
         <v>0.8387</v>
       </c>
       <c r="Z9" s="1">
@@ -1121,28 +1406,46 @@
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+      <c r="F10" s="7">
+        <v>0.55689999999999995</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0.625</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0.4516</v>
+      </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
+      <c r="N10" s="3">
+        <v>0.58279999999999998</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0.6774</v>
+      </c>
+      <c r="P10" s="3">
+        <v>0.4839</v>
+      </c>
       <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="V10" s="8">
+      <c r="R10" s="3">
+        <v>0.59850000000000003</v>
+      </c>
+      <c r="S10" s="3">
+        <v>0.65620000000000001</v>
+      </c>
+      <c r="T10" s="3">
+        <v>0.4516</v>
+      </c>
+      <c r="V10" s="7">
         <v>0.82650000000000001</v>
       </c>
-      <c r="W10" s="8">
+      <c r="W10" s="7">
         <v>0.96879999999999999</v>
       </c>
-      <c r="X10" s="8">
+      <c r="X10" s="7">
         <v>0.6774</v>
       </c>
       <c r="Z10" s="1">
@@ -1187,28 +1490,46 @@
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="F11" s="7">
+        <v>0.62580000000000002</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0.73329999999999995</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0.4516</v>
+      </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
+      <c r="N11" s="3">
+        <v>0.63829999999999998</v>
+      </c>
+      <c r="O11" s="3">
+        <v>0.7742</v>
+      </c>
+      <c r="P11" s="3">
+        <v>0.5806</v>
+      </c>
       <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="V11" s="8">
+      <c r="R11" s="3">
+        <v>0.55730000000000002</v>
+      </c>
+      <c r="S11" s="3">
+        <v>0.6452</v>
+      </c>
+      <c r="T11" s="3">
+        <v>0.3548</v>
+      </c>
+      <c r="V11" s="7">
         <v>0.75739999999999996</v>
       </c>
-      <c r="W11" s="8">
+      <c r="W11" s="7">
         <v>0.875</v>
       </c>
-      <c r="X11" s="8">
+      <c r="X11" s="7">
         <v>0.6774</v>
       </c>
       <c r="Z11" s="1">
@@ -1253,28 +1574,46 @@
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="F12" s="7">
+        <v>0.57340000000000002</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0.6552</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0.43330000000000002</v>
+      </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
+      <c r="N12" s="3">
+        <v>0.62060000000000004</v>
+      </c>
+      <c r="O12" s="3">
+        <v>0.73329999999999995</v>
+      </c>
+      <c r="P12" s="3">
+        <v>0.5</v>
+      </c>
       <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="V12" s="8">
+      <c r="R12" s="3">
+        <v>0.63749999999999996</v>
+      </c>
+      <c r="S12" s="3">
+        <v>0.72409999999999997</v>
+      </c>
+      <c r="T12" s="3">
+        <v>0.55169999999999997</v>
+      </c>
+      <c r="V12" s="7">
         <v>0.78410000000000002</v>
       </c>
-      <c r="W12" s="8">
+      <c r="W12" s="7">
         <v>0.93330000000000002</v>
       </c>
-      <c r="X12" s="8">
+      <c r="X12" s="7">
         <v>0.55169999999999997</v>
       </c>
       <c r="Z12" s="1">
@@ -1319,28 +1658,46 @@
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="F13" s="7">
+        <v>0.61990000000000001</v>
+      </c>
+      <c r="G13" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0.51719999999999999</v>
+      </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
+      <c r="N13" s="3">
+        <v>0.61990000000000001</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0.72409999999999997</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0.55169999999999997</v>
+      </c>
       <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="V13" s="8">
+      <c r="R13" s="3">
+        <v>0.63009999999999999</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0.76670000000000005</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0.51719999999999999</v>
+      </c>
+      <c r="V13" s="7">
         <v>0.80479999999999996</v>
       </c>
-      <c r="W13" s="8">
+      <c r="W13" s="7">
         <v>0.86670000000000003</v>
       </c>
-      <c r="X13" s="8">
+      <c r="X13" s="7">
         <v>0.72409999999999997</v>
       </c>
       <c r="Z13" s="1">
@@ -1379,43 +1736,89 @@
     </row>
     <row r="14" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="V14" s="10">
+        <v>4</v>
+      </c>
+      <c r="B14" s="9" t="e">
+        <f>AVERAGE(B6:B13)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C14" s="9" t="e">
+        <f t="shared" ref="C14:T14" si="0">AVERAGE(C6:C13)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D14" s="9" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9">
+        <f t="shared" si="0"/>
+        <v>0.61608750000000012</v>
+      </c>
+      <c r="G14" s="9">
+        <f t="shared" si="0"/>
+        <v>0.72775000000000001</v>
+      </c>
+      <c r="H14" s="9">
+        <f t="shared" si="0"/>
+        <v>0.49070000000000003</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K14" s="9" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L14" s="9" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9">
+        <f t="shared" si="0"/>
+        <v>0.63002499999999995</v>
+      </c>
+      <c r="O14" s="9">
+        <f t="shared" si="0"/>
+        <v>0.74648749999999997</v>
+      </c>
+      <c r="P14" s="9">
+        <f t="shared" si="0"/>
+        <v>0.52649999999999997</v>
+      </c>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9">
+        <f t="shared" si="0"/>
+        <v>0.62267499999999998</v>
+      </c>
+      <c r="S14" s="9">
+        <f t="shared" si="0"/>
+        <v>0.74590000000000001</v>
+      </c>
+      <c r="T14" s="9">
+        <f t="shared" si="0"/>
+        <v>0.48430000000000001</v>
+      </c>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9">
         <v>0.72270000000000001</v>
       </c>
-      <c r="W14" s="10">
+      <c r="W14" s="9">
         <v>0.83899999999999997</v>
       </c>
-      <c r="X14" s="10">
+      <c r="X14" s="9">
         <v>0.58950000000000002</v>
       </c>
-      <c r="Z14" s="11">
+      <c r="Z14" s="10">
         <v>67.680000000000007</v>
       </c>
-      <c r="AA14" s="11">
+      <c r="AA14" s="10">
         <v>79.819999999999993</v>
       </c>
-      <c r="AB14" s="11">
+      <c r="AB14" s="10">
         <v>58.83</v>
       </c>
       <c r="AD14" s="4">
@@ -1447,215 +1850,224 @@
       <c r="A17" t="s">
         <v>1</v>
       </c>
+      <c r="F17" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="N17" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="R17" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" t="s">
         <v>17</v>
       </c>
-      <c r="D18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="H18" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" t="s">
+        <v>15</v>
+      </c>
+      <c r="N18" t="s">
+        <v>20</v>
+      </c>
+      <c r="P18" t="s">
+        <v>15</v>
+      </c>
+      <c r="R18" t="s">
+        <v>21</v>
+      </c>
+      <c r="T18" t="s">
+        <v>15</v>
+      </c>
+      <c r="V18" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="X18" t="s">
         <v>18</v>
-      </c>
-      <c r="H18" t="s">
-        <v>16</v>
-      </c>
-      <c r="J18" t="s">
-        <v>23</v>
-      </c>
-      <c r="L18" t="s">
-        <v>16</v>
-      </c>
-      <c r="N18" t="s">
-        <v>21</v>
-      </c>
-      <c r="P18" t="s">
-        <v>16</v>
-      </c>
-      <c r="R18" t="s">
-        <v>22</v>
-      </c>
-      <c r="T18" t="s">
-        <v>16</v>
-      </c>
-      <c r="V18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="X18" t="s">
-        <v>19</v>
       </c>
       <c r="Z18" t="s">
         <v>2</v>
       </c>
       <c r="AB18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AD18" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="AF18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AN18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:40" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
         <v>6</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>7</v>
       </c>
-      <c r="D19" t="s">
-        <v>8</v>
-      </c>
       <c r="F19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" t="s">
         <v>6</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>7</v>
       </c>
-      <c r="H19" t="s">
-        <v>8</v>
-      </c>
       <c r="J19" t="s">
+        <v>5</v>
+      </c>
+      <c r="K19" t="s">
         <v>6</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>7</v>
       </c>
-      <c r="L19" t="s">
-        <v>8</v>
-      </c>
       <c r="N19" t="s">
+        <v>5</v>
+      </c>
+      <c r="O19" t="s">
         <v>6</v>
       </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
         <v>7</v>
       </c>
-      <c r="P19" t="s">
-        <v>8</v>
-      </c>
       <c r="R19" t="s">
+        <v>5</v>
+      </c>
+      <c r="S19" t="s">
         <v>6</v>
       </c>
-      <c r="S19" t="s">
+      <c r="T19" t="s">
         <v>7</v>
       </c>
-      <c r="T19" t="s">
-        <v>8</v>
-      </c>
       <c r="V19" t="s">
+        <v>5</v>
+      </c>
+      <c r="W19" t="s">
         <v>6</v>
       </c>
-      <c r="W19" t="s">
+      <c r="X19" t="s">
         <v>7</v>
       </c>
-      <c r="X19" t="s">
-        <v>8</v>
-      </c>
       <c r="Z19" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA19" t="s">
         <v>6</v>
       </c>
-      <c r="AA19" t="s">
+      <c r="AB19" t="s">
         <v>7</v>
       </c>
-      <c r="AB19" t="s">
-        <v>8</v>
-      </c>
       <c r="AD19" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE19" t="s">
         <v>6</v>
       </c>
-      <c r="AE19" t="s">
+      <c r="AF19" t="s">
         <v>7</v>
       </c>
-      <c r="AF19" t="s">
-        <v>8</v>
-      </c>
       <c r="AH19" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI19" t="s">
         <v>6</v>
       </c>
-      <c r="AI19" t="s">
+      <c r="AJ19" t="s">
         <v>7</v>
       </c>
-      <c r="AJ19" t="s">
-        <v>8</v>
-      </c>
       <c r="AL19" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM19" t="s">
         <v>6</v>
       </c>
-      <c r="AM19" t="s">
+      <c r="AN19" t="s">
         <v>7</v>
-      </c>
-      <c r="AN19" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="7">
         <v>0.59960000000000002</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="7">
         <v>0.73260000000000003</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="7">
         <v>0.45350000000000001</v>
       </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8">
-        <v>0.5968</v>
-      </c>
-      <c r="G20" s="8">
-        <v>0.75860000000000005</v>
-      </c>
-      <c r="H20" s="8">
-        <v>0.53569999999999995</v>
-      </c>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8">
-        <v>0.62170000000000003</v>
-      </c>
-      <c r="O20" s="8">
+      <c r="E20" s="7"/>
+      <c r="F20" s="7">
+        <v>0.56610000000000005</v>
+      </c>
+      <c r="G20" s="7">
+        <v>0.67859999999999998</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0.44829999999999998</v>
+      </c>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7">
+        <v>0.64219999999999999</v>
+      </c>
+      <c r="O20" s="7">
         <v>0.72409999999999997</v>
       </c>
-      <c r="P20" s="8">
-        <v>0.55169999999999997</v>
-      </c>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="8">
-        <v>0.60429999999999995</v>
-      </c>
-      <c r="S20" s="8">
-        <v>0.67859999999999998</v>
-      </c>
-      <c r="T20" s="8">
-        <v>0.44829999999999998</v>
-      </c>
-      <c r="V20" s="8">
+      <c r="P20" s="7">
+        <v>0.58620000000000005</v>
+      </c>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7">
+        <v>0.69430000000000003</v>
+      </c>
+      <c r="S20" s="7">
+        <v>0.79310000000000003</v>
+      </c>
+      <c r="T20" s="7">
+        <v>0.62070000000000003</v>
+      </c>
+      <c r="V20" s="7">
         <v>0.49359999999999998</v>
       </c>
-      <c r="W20" s="8">
+      <c r="W20" s="7">
         <v>0.60709999999999997</v>
       </c>
-      <c r="X20" s="8">
+      <c r="X20" s="7">
         <v>0.31030000000000002</v>
       </c>
       <c r="Z20">
@@ -1693,56 +2105,56 @@
       <c r="A21">
         <v>2</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="7">
         <v>0.58230000000000004</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="7">
         <v>0.6744</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="7">
         <v>0.49430000000000002</v>
       </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8">
-        <v>0.61380000000000001</v>
-      </c>
-      <c r="G21" s="8">
+      <c r="E21" s="7"/>
+      <c r="F21" s="7">
+        <v>0.65229999999999999</v>
+      </c>
+      <c r="G21" s="7">
+        <v>0.79310000000000003</v>
+      </c>
+      <c r="H21" s="7">
+        <v>0.55169999999999997</v>
+      </c>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7">
+        <v>0.69779999999999998</v>
+      </c>
+      <c r="O21" s="7">
+        <v>0.79310000000000003</v>
+      </c>
+      <c r="P21" s="7">
+        <v>0.58620000000000005</v>
+      </c>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7">
+        <v>0.65629999999999999</v>
+      </c>
+      <c r="S21" s="7">
         <v>0.75860000000000005</v>
       </c>
-      <c r="H21" s="8">
-        <v>0.46429999999999999</v>
-      </c>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8">
-        <v>0.65269999999999995</v>
-      </c>
-      <c r="O21" s="8">
-        <v>0.79310000000000003</v>
-      </c>
-      <c r="P21" s="8">
-        <v>0.48280000000000001</v>
-      </c>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="8">
-        <v>0.6179</v>
-      </c>
-      <c r="S21" s="8">
-        <v>0.72409999999999997</v>
-      </c>
-      <c r="T21" s="8">
-        <v>0.57140000000000002</v>
-      </c>
-      <c r="V21" s="8">
+      <c r="T21" s="7">
+        <v>0.55169999999999997</v>
+      </c>
+      <c r="V21" s="7">
         <v>0.53090000000000004</v>
       </c>
-      <c r="W21" s="8">
+      <c r="W21" s="7">
         <v>0.6552</v>
       </c>
-      <c r="X21" s="8">
+      <c r="X21" s="7">
         <v>0.39290000000000003</v>
       </c>
       <c r="Z21">
@@ -1780,56 +2192,56 @@
       <c r="A22">
         <v>3</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="7">
         <v>0.58330000000000004</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="7">
         <v>0.62790000000000001</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="7">
         <v>0.52329999999999999</v>
       </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8">
-        <v>0.64249999999999996</v>
-      </c>
-      <c r="G22" s="8">
-        <v>0.72409999999999997</v>
-      </c>
-      <c r="H22" s="8">
-        <v>0.44829999999999998</v>
-      </c>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8">
-        <v>0.62549999999999994</v>
-      </c>
-      <c r="O22" s="8">
+      <c r="E22" s="7"/>
+      <c r="F22" s="12">
+        <v>0.61250000000000004</v>
+      </c>
+      <c r="G22" s="12">
         <v>0.75</v>
       </c>
-      <c r="P22" s="8">
+      <c r="H22" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7">
+        <v>0.64980000000000004</v>
+      </c>
+      <c r="O22" s="7">
+        <v>0.71430000000000005</v>
+      </c>
+      <c r="P22" s="7">
         <v>0.55169999999999997</v>
       </c>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="8">
-        <v>0.62839999999999996</v>
-      </c>
-      <c r="S22" s="8">
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7">
+        <v>0.62480000000000002</v>
+      </c>
+      <c r="S22" s="7">
         <v>0.68969999999999998</v>
       </c>
-      <c r="T22" s="8">
-        <v>0.55169999999999997</v>
-      </c>
-      <c r="V22" s="8">
+      <c r="T22" s="7">
+        <v>0.51719999999999999</v>
+      </c>
+      <c r="V22" s="7">
         <v>0.52129999999999999</v>
       </c>
-      <c r="W22" s="8">
+      <c r="W22" s="7">
         <v>0.64290000000000003</v>
       </c>
-      <c r="X22" s="8">
+      <c r="X22" s="7">
         <v>0.37930000000000003</v>
       </c>
       <c r="Z22">
@@ -1867,56 +2279,56 @@
       <c r="A23">
         <v>4</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23" s="7">
         <v>0.61939999999999995</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="7">
         <v>0.68059999999999998</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="7">
         <v>0.51390000000000002</v>
       </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8">
+      <c r="E23" s="7"/>
+      <c r="F23" s="12">
         <v>0.61250000000000004</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G23" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="H23" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7">
+        <v>0.70420000000000005</v>
+      </c>
+      <c r="O23" s="7">
         <v>0.79169999999999996</v>
       </c>
-      <c r="H23" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8">
-        <v>0.6583</v>
-      </c>
-      <c r="O23" s="8">
+      <c r="P23" s="7">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7">
+        <v>0.6542</v>
+      </c>
+      <c r="S23" s="7">
         <v>0.79169999999999996</v>
       </c>
-      <c r="P23" s="8">
-        <v>0.58330000000000004</v>
-      </c>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="8">
-        <v>0.62919999999999998</v>
-      </c>
-      <c r="S23" s="8">
-        <v>0.75</v>
-      </c>
-      <c r="T23" s="8">
+      <c r="T23" s="7">
         <v>0.54169999999999996</v>
       </c>
-      <c r="V23" s="8">
+      <c r="V23" s="7">
         <v>0.4667</v>
       </c>
-      <c r="W23" s="8">
+      <c r="W23" s="7">
         <v>0.66669999999999996</v>
       </c>
-      <c r="X23" s="8">
+      <c r="X23" s="7">
         <v>0.33329999999999999</v>
       </c>
       <c r="Z23">
@@ -1954,56 +2366,56 @@
       <c r="A24">
         <v>5</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24" s="7">
         <v>0.62860000000000005</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="7">
         <v>0.6744</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="7">
         <v>0.58620000000000005</v>
       </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8">
-        <v>0.62480000000000002</v>
-      </c>
-      <c r="G24" s="8">
-        <v>0.72409999999999997</v>
-      </c>
-      <c r="H24" s="8">
-        <v>0.53569999999999995</v>
-      </c>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8">
-        <v>0.67410000000000003</v>
-      </c>
-      <c r="O24" s="8">
-        <v>0.85709999999999997</v>
-      </c>
-      <c r="P24" s="8">
-        <v>0.55169999999999997</v>
-      </c>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="8">
-        <v>0.6179</v>
-      </c>
-      <c r="S24" s="8">
+      <c r="E24" s="7"/>
+      <c r="F24" s="7">
+        <v>0.65229999999999999</v>
+      </c>
+      <c r="G24" s="7">
+        <v>0.75860000000000005</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0.51719999999999999</v>
+      </c>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7">
+        <v>0.69789999999999996</v>
+      </c>
+      <c r="O24" s="7">
+        <v>0.75860000000000005</v>
+      </c>
+      <c r="P24" s="7">
+        <v>0.58620000000000005</v>
+      </c>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7">
+        <v>0.63139999999999996</v>
+      </c>
+      <c r="S24" s="7">
         <v>0.68969999999999998</v>
       </c>
-      <c r="T24" s="8">
-        <v>0.51719999999999999</v>
-      </c>
-      <c r="V24" s="8">
+      <c r="T24" s="7">
+        <v>0.46429999999999999</v>
+      </c>
+      <c r="V24" s="7">
         <v>0.53849999999999998</v>
       </c>
-      <c r="W24" s="8">
+      <c r="W24" s="7">
         <v>0.75860000000000005</v>
       </c>
-      <c r="X24" s="8">
+      <c r="X24" s="7">
         <v>0.4138</v>
       </c>
       <c r="Z24">
@@ -2041,56 +2453,56 @@
       <c r="A25">
         <v>6</v>
       </c>
-      <c r="B25" s="8">
+      <c r="B25" s="7">
         <v>0.61119999999999997</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="7">
         <v>0.6744</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="7">
         <v>0.56320000000000003</v>
       </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8">
-        <v>0.69089999999999996</v>
-      </c>
-      <c r="G25" s="8">
-        <v>0.89659999999999995</v>
-      </c>
-      <c r="H25" s="8">
-        <v>0.48280000000000001</v>
-      </c>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8">
-        <v>0.65280000000000005</v>
-      </c>
-      <c r="O25" s="8">
-        <v>0.75860000000000005</v>
-      </c>
-      <c r="P25" s="8">
-        <v>0.55169999999999997</v>
-      </c>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="8">
-        <v>0.63500000000000001</v>
-      </c>
-      <c r="S25" s="8">
-        <v>0.8276</v>
-      </c>
-      <c r="T25" s="8">
+      <c r="E25" s="7"/>
+      <c r="F25" s="7">
+        <v>0.73260000000000003</v>
+      </c>
+      <c r="G25" s="7">
+        <v>0.86209999999999998</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0.6552</v>
+      </c>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7">
+        <v>0.68730000000000002</v>
+      </c>
+      <c r="O25" s="7">
+        <v>0.79310000000000003</v>
+      </c>
+      <c r="P25" s="7">
+        <v>0.62070000000000003</v>
+      </c>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7">
+        <v>0.67779999999999996</v>
+      </c>
+      <c r="S25" s="7">
+        <v>0.82140000000000002</v>
+      </c>
+      <c r="T25" s="7">
         <v>0.51719999999999999</v>
       </c>
-      <c r="V25" s="8">
+      <c r="V25" s="7">
         <v>0.47160000000000002</v>
       </c>
-      <c r="W25" s="8">
+      <c r="W25" s="7">
         <v>0.6552</v>
       </c>
-      <c r="X25" s="8">
+      <c r="X25" s="7">
         <v>0.31030000000000002</v>
       </c>
       <c r="Z25">
@@ -2128,56 +2540,56 @@
       <c r="A26">
         <v>7</v>
       </c>
-      <c r="B26" s="8">
+      <c r="B26" s="7">
         <v>0.61580000000000001</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="7">
         <v>0.6552</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="7">
         <v>0.54020000000000001</v>
       </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8">
-        <v>0.64929999999999999</v>
-      </c>
-      <c r="G26" s="8">
-        <v>0.68969999999999998</v>
-      </c>
-      <c r="H26" s="8">
-        <v>0.58620000000000005</v>
-      </c>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8">
-        <v>0.64929999999999999</v>
-      </c>
-      <c r="O26" s="8">
-        <v>0.68969999999999998</v>
-      </c>
-      <c r="P26" s="8">
-        <v>0.58620000000000005</v>
-      </c>
-      <c r="Q26" s="8"/>
-      <c r="R26" s="8">
-        <v>0.65200000000000002</v>
-      </c>
-      <c r="S26" s="8">
-        <v>0.72409999999999997</v>
-      </c>
-      <c r="T26" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="V26" s="8">
+      <c r="E26" s="7"/>
+      <c r="F26" s="7">
+        <v>0.71479999999999999</v>
+      </c>
+      <c r="G26" s="7">
+        <v>0.86209999999999998</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0.60709999999999997</v>
+      </c>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7">
+        <v>0.70469999999999999</v>
+      </c>
+      <c r="O26" s="7">
+        <v>0.75860000000000005</v>
+      </c>
+      <c r="P26" s="7">
+        <v>0.67859999999999998</v>
+      </c>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7">
+        <v>0.7046</v>
+      </c>
+      <c r="S26" s="7">
+        <v>0.79310000000000003</v>
+      </c>
+      <c r="T26" s="7">
+        <v>0.62070000000000003</v>
+      </c>
+      <c r="V26" s="7">
         <v>0.58209999999999995</v>
       </c>
-      <c r="W26" s="8">
+      <c r="W26" s="7">
         <v>0.75860000000000005</v>
       </c>
-      <c r="X26" s="8">
+      <c r="X26" s="7">
         <v>0.39290000000000003</v>
       </c>
       <c r="Z26">
@@ -2215,56 +2627,56 @@
       <c r="A27">
         <v>8</v>
       </c>
-      <c r="B27" s="8">
+      <c r="B27" s="7">
         <v>0.58899999999999997</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="7">
         <v>0.68969999999999998</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="7">
         <v>0.51160000000000005</v>
       </c>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8">
-        <v>0.59360000000000002</v>
-      </c>
-      <c r="G27" s="8">
+      <c r="E27" s="7"/>
+      <c r="F27" s="7">
+        <v>0.65649999999999997</v>
+      </c>
+      <c r="G27" s="7">
         <v>0.72409999999999997</v>
       </c>
-      <c r="H27" s="8">
-        <v>0.51719999999999999</v>
-      </c>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8">
-        <v>0.59050000000000002</v>
-      </c>
-      <c r="O27" s="8">
-        <v>0.6552</v>
-      </c>
-      <c r="P27" s="8">
-        <v>0.51719999999999999</v>
-      </c>
-      <c r="Q27" s="8"/>
-      <c r="R27" s="8">
-        <v>0.63519999999999999</v>
-      </c>
-      <c r="S27" s="8">
+      <c r="H27" s="7">
+        <v>0.58620000000000005</v>
+      </c>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7">
+        <v>0.62539999999999996</v>
+      </c>
+      <c r="O27" s="7">
         <v>0.68969999999999998</v>
       </c>
-      <c r="T27" s="8">
+      <c r="P27" s="7">
         <v>0.48280000000000001</v>
       </c>
-      <c r="V27" s="8">
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7">
+        <v>0.67030000000000001</v>
+      </c>
+      <c r="S27" s="7">
+        <v>0.79310000000000003</v>
+      </c>
+      <c r="T27" s="7">
+        <v>0.55169999999999997</v>
+      </c>
+      <c r="V27" s="7">
         <v>0.42349999999999999</v>
       </c>
-      <c r="W27" s="8">
+      <c r="W27" s="7">
         <v>0.55169999999999997</v>
       </c>
-      <c r="X27" s="8">
+      <c r="X27" s="7">
         <v>0.31030000000000002</v>
       </c>
       <c r="Z27">
@@ -2302,56 +2714,56 @@
       <c r="A28">
         <v>9</v>
       </c>
-      <c r="B28" s="8">
+      <c r="B28" s="7">
         <v>0.60409999999999997</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="7">
         <v>0.66669999999999996</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D28" s="7">
         <v>0.51160000000000005</v>
       </c>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8">
-        <v>0.6421</v>
-      </c>
-      <c r="G28" s="8">
-        <v>0.72409999999999997</v>
-      </c>
-      <c r="H28" s="8">
-        <v>0.51719999999999999</v>
-      </c>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8">
-        <v>0.63170000000000004</v>
-      </c>
-      <c r="O28" s="8">
-        <v>0.75860000000000005</v>
-      </c>
-      <c r="P28" s="8">
-        <v>0.55169999999999997</v>
-      </c>
-      <c r="Q28" s="8"/>
-      <c r="R28" s="8">
-        <v>0.61819999999999997</v>
-      </c>
-      <c r="S28" s="8">
-        <v>0.72409999999999997</v>
-      </c>
-      <c r="T28" s="8">
-        <v>0.51719999999999999</v>
-      </c>
-      <c r="V28" s="8">
+      <c r="E28" s="7"/>
+      <c r="F28" s="7">
+        <v>0.69430000000000003</v>
+      </c>
+      <c r="G28" s="7">
+        <v>0.86209999999999998</v>
+      </c>
+      <c r="H28" s="7">
+        <v>0.62070000000000003</v>
+      </c>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7">
+        <v>0.67620000000000002</v>
+      </c>
+      <c r="O28" s="7">
+        <v>0.8276</v>
+      </c>
+      <c r="P28" s="7">
+        <v>0.53569999999999995</v>
+      </c>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7">
+        <v>0.66279999999999994</v>
+      </c>
+      <c r="S28" s="7">
+        <v>0.79310000000000003</v>
+      </c>
+      <c r="T28" s="7">
+        <v>0.57140000000000002</v>
+      </c>
+      <c r="V28" s="7">
         <v>0.52429999999999999</v>
       </c>
-      <c r="W28" s="8">
+      <c r="W28" s="7">
         <v>0.60709999999999997</v>
       </c>
-      <c r="X28" s="8">
+      <c r="X28" s="7">
         <v>0.42859999999999998</v>
       </c>
       <c r="Z28">
@@ -2387,79 +2799,79 @@
     </row>
     <row r="29" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" s="9">
+        <v>4</v>
+      </c>
+      <c r="B29" s="8">
         <f>AVERAGE(B20:B28)</f>
         <v>0.60370000000000001</v>
       </c>
-      <c r="C29" s="9">
-        <f t="shared" ref="C29:F29" si="0">AVERAGE(C20:C28)</f>
+      <c r="C29" s="8">
+        <f t="shared" ref="C29:D29" si="1">AVERAGE(C20:C28)</f>
         <v>0.67510000000000003</v>
       </c>
-      <c r="D29" s="9">
-        <f t="shared" si="0"/>
+      <c r="D29" s="8">
+        <f t="shared" si="1"/>
         <v>0.52197777777777787</v>
       </c>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9">
-        <f t="shared" si="0"/>
-        <v>0.62958888888888898</v>
-      </c>
-      <c r="G29" s="9">
-        <f t="shared" ref="G29" si="1">AVERAGE(G20:G28)</f>
-        <v>0.75462222222222219</v>
-      </c>
-      <c r="H29" s="9">
-        <f t="shared" ref="H29" si="2">AVERAGE(H20:H28)</f>
-        <v>0.50971111111111111</v>
-      </c>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9" t="e">
+      <c r="E29" s="8"/>
+      <c r="F29" s="8">
+        <f>AVERAGE(F20:F28)</f>
+        <v>0.65487777777777778</v>
+      </c>
+      <c r="G29" s="8">
+        <f t="shared" ref="G29:H29" si="2">AVERAGE(G20:G28)</f>
+        <v>0.7823</v>
+      </c>
+      <c r="H29" s="8">
+        <f t="shared" si="2"/>
+        <v>0.55404444444444445</v>
+      </c>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8" t="e">
         <f t="shared" ref="J29" si="3">AVERAGE(J20:J28)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K29" s="9" t="e">
+      <c r="K29" s="8" t="e">
         <f t="shared" ref="K29" si="4">AVERAGE(K20:K28)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L29" s="9" t="e">
+      <c r="L29" s="8" t="e">
         <f t="shared" ref="L29" si="5">AVERAGE(L20:L28)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9">
+      <c r="M29" s="8"/>
+      <c r="N29" s="8">
         <f t="shared" ref="N29" si="6">AVERAGE(N20:N28)</f>
-        <v>0.63962222222222231</v>
-      </c>
-      <c r="O29" s="9">
+        <v>0.67616666666666658</v>
+      </c>
+      <c r="O29" s="8">
         <f t="shared" ref="O29" si="7">AVERAGE(O20:O28)</f>
-        <v>0.75312222222222225</v>
-      </c>
-      <c r="P29" s="9">
+        <v>0.7612000000000001</v>
+      </c>
+      <c r="P29" s="8">
         <f t="shared" ref="P29" si="8">AVERAGE(P20:P28)</f>
-        <v>0.54755555555555557</v>
-      </c>
-      <c r="Q29" s="9"/>
-      <c r="R29" s="9">
+        <v>0.58831111111111123</v>
+      </c>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8">
         <f t="shared" ref="R29" si="9">AVERAGE(R20:R28)</f>
-        <v>0.62645555555555565</v>
-      </c>
-      <c r="S29" s="9">
+        <v>0.66405555555555551</v>
+      </c>
+      <c r="S29" s="8">
         <f t="shared" ref="S29" si="10">AVERAGE(S20:S28)</f>
-        <v>0.72195555555555557</v>
-      </c>
-      <c r="T29" s="9">
+        <v>0.76927777777777773</v>
+      </c>
+      <c r="T29" s="8">
         <f t="shared" ref="T29" si="11">AVERAGE(T20:T28)</f>
-        <v>0.5163888888888889</v>
-      </c>
-      <c r="V29" s="10">
+        <v>0.5507333333333333</v>
+      </c>
+      <c r="V29" s="9">
         <v>0.50580000000000003</v>
       </c>
-      <c r="W29" s="10">
+      <c r="W29" s="9">
         <v>0.65590000000000004</v>
       </c>
-      <c r="X29" s="10">
+      <c r="X29" s="9">
         <v>0.36349999999999999</v>
       </c>
       <c r="Z29" s="4">
@@ -2498,7 +2910,6 @@
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
@@ -2506,13 +2917,2234 @@
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="7" t="s">
-        <v>24</v>
-      </c>
+      <c r="O32" s="6"/>
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
-      <c r="R32" s="3"/>
+      <c r="R32" s="6"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="G35" t="s">
+        <v>27</v>
+      </c>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="G36" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" t="s">
+        <v>17</v>
+      </c>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="7">
+        <v>0.56240000000000001</v>
+      </c>
+      <c r="G40" s="7">
+        <v>0.6552</v>
+      </c>
+      <c r="H40" s="7">
+        <v>0.48280000000000001</v>
+      </c>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="7">
+        <v>0.62129999999999996</v>
+      </c>
+      <c r="G41" s="7">
+        <v>0.75860000000000005</v>
+      </c>
+      <c r="H41" s="7">
+        <v>0.53569999999999995</v>
+      </c>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5"/>
+      <c r="R41" s="5"/>
+      <c r="S41" s="5"/>
+      <c r="T41" s="5"/>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="F42" s="7">
+        <v>0.61850000000000005</v>
+      </c>
+      <c r="G42" s="7">
+        <v>0.72409999999999997</v>
+      </c>
+      <c r="H42" s="7">
+        <v>0.44829999999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="F43" s="7">
+        <v>0.64170000000000005</v>
+      </c>
+      <c r="G43" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="H43" s="7">
+        <v>0.45829999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="F44" s="7">
+        <v>0.6179</v>
+      </c>
+      <c r="G44" s="7">
+        <v>0.8276</v>
+      </c>
+      <c r="H44" s="7">
+        <v>0.51719999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="F45" s="7">
+        <v>0.70169999999999999</v>
+      </c>
+      <c r="G45" s="7">
+        <v>0.86209999999999998</v>
+      </c>
+      <c r="H45" s="7">
+        <v>0.55169999999999997</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="F46" s="7">
+        <v>0.68759999999999999</v>
+      </c>
+      <c r="G46" s="7">
+        <v>0.79310000000000003</v>
+      </c>
+      <c r="H46" s="7">
+        <v>0.58620000000000005</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="F47" s="7">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G47" s="7">
+        <v>0.64290000000000003</v>
+      </c>
+      <c r="H47" s="7">
+        <v>0.48280000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="F48" s="7">
+        <v>0.67010000000000003</v>
+      </c>
+      <c r="G48" s="7">
+        <v>0.75860000000000005</v>
+      </c>
+      <c r="H48" s="7">
+        <v>0.55169999999999997</v>
+      </c>
+    </row>
+    <row r="49" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F49" s="9">
+        <f>AVERAGE(F40:F48)</f>
+        <v>0.63235555555555556</v>
+      </c>
+      <c r="G49" s="9">
+        <f t="shared" ref="G49:H49" si="12">AVERAGE(G40:G48)</f>
+        <v>0.75246666666666673</v>
+      </c>
+      <c r="H49" s="9">
+        <f t="shared" si="12"/>
+        <v>0.51274444444444445</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="F20:F29">
+    <cfRule type="cellIs" dxfId="29" priority="2" operator="greaterThan">
+      <formula>0.7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N20:N28">
+    <cfRule type="cellIs" dxfId="28" priority="1" operator="greaterThan">
+      <formula>0.7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U37">
+    <cfRule type="cellIs" dxfId="27" priority="3" operator="greaterThan">
+      <formula>60</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V6:V13">
+    <cfRule type="cellIs" dxfId="26" priority="16" operator="greaterThan">
+      <formula>0.7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="18" operator="greaterThan">
+      <formula>0.7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V20:V27">
+    <cfRule type="cellIs" dxfId="24" priority="6" operator="greaterThan">
+      <formula>0.7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="11" operator="greaterThan">
+      <formula>0.7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z6:Z13">
+    <cfRule type="cellIs" dxfId="22" priority="15" operator="greaterThan">
+      <formula>70</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="17" operator="greaterThan">
+      <formula>70</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z20:Z28">
+    <cfRule type="cellIs" dxfId="20" priority="10" operator="greaterThan">
+      <formula>70</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD6:AD13">
+    <cfRule type="cellIs" dxfId="19" priority="14" operator="greaterThan">
+      <formula>70</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD20:AD28">
+    <cfRule type="cellIs" dxfId="18" priority="9" operator="greaterThan">
+      <formula>70</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH6:AH13">
+    <cfRule type="cellIs" dxfId="17" priority="13" operator="greaterThan">
+      <formula>70</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH20:AH28">
+    <cfRule type="cellIs" dxfId="16" priority="8" operator="greaterThan">
+      <formula>70</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL6:AL13">
+    <cfRule type="cellIs" dxfId="15" priority="12" operator="greaterThan">
+      <formula>70</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL20:AL28">
+    <cfRule type="cellIs" dxfId="14" priority="7" operator="greaterThan">
+      <formula>70</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4C44165-28A1-4F5A-8F41-9AF0C0614AC5}">
+  <dimension ref="A1:AN41"/>
+  <sheetViews>
+    <sheetView zoomScale="80" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" customWidth="1"/>
+    <col min="22" max="22" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.77734375" customWidth="1"/>
+    <col min="24" max="25" width="11.6640625" customWidth="1"/>
+    <col min="34" max="34" width="13.33203125" customWidth="1"/>
+    <col min="38" max="38" width="14.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+    </row>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" t="s">
+        <v>23</v>
+      </c>
+      <c r="R3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R4" t="s">
+        <v>21</v>
+      </c>
+      <c r="T4" t="s">
+        <v>15</v>
+      </c>
+      <c r="V4" t="s">
+        <v>3</v>
+      </c>
+      <c r="X4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" t="s">
+        <v>7</v>
+      </c>
+      <c r="N5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R5" t="s">
+        <v>5</v>
+      </c>
+      <c r="S5" t="s">
+        <v>6</v>
+      </c>
+      <c r="T5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V5" t="s">
+        <v>5</v>
+      </c>
+      <c r="W5" t="s">
+        <v>6</v>
+      </c>
+      <c r="X5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.53110000000000002</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.46879999999999999</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="7">
+        <v>0.59860000000000002</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0.71879999999999999</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0.4194</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3">
+        <v>0.65310000000000001</v>
+      </c>
+      <c r="O6" s="3">
+        <v>0.7097</v>
+      </c>
+      <c r="P6" s="3">
+        <v>0.59379999999999999</v>
+      </c>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="V6" s="7">
+        <v>0.45929999999999999</v>
+      </c>
+      <c r="W6" s="7">
+        <v>0.59379999999999999</v>
+      </c>
+      <c r="X6" s="7">
+        <v>0.28120000000000001</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>69.37</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>78.12</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>59.38</v>
+      </c>
+      <c r="AD6">
+        <v>65.94</v>
+      </c>
+      <c r="AE6">
+        <v>71.88</v>
+      </c>
+      <c r="AF6">
+        <v>59.38</v>
+      </c>
+      <c r="AH6">
+        <v>70.31</v>
+      </c>
+      <c r="AI6">
+        <v>78.12</v>
+      </c>
+      <c r="AJ6">
+        <v>65.62</v>
+      </c>
+      <c r="AL6">
+        <v>70.31</v>
+      </c>
+      <c r="AM6">
+        <v>78.12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.67649999999999999</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.47060000000000002</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="7">
+        <v>0.61950000000000005</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0.48480000000000001</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3">
+        <v>0.53779999999999994</v>
+      </c>
+      <c r="O7" s="3">
+        <v>0.57579999999999998</v>
+      </c>
+      <c r="P7" s="3">
+        <v>0.48480000000000001</v>
+      </c>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="V7" s="7">
+        <v>0.67559999999999998</v>
+      </c>
+      <c r="W7" s="7">
+        <v>0.79410000000000003</v>
+      </c>
+      <c r="X7" s="7">
+        <v>0.55879999999999996</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>77.59</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>91.43</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>64.709999999999994</v>
+      </c>
+      <c r="AD7">
+        <v>68.34</v>
+      </c>
+      <c r="AE7">
+        <v>80</v>
+      </c>
+      <c r="AF7">
+        <v>54.29</v>
+      </c>
+      <c r="AH7">
+        <v>76.77</v>
+      </c>
+      <c r="AI7">
+        <v>85.29</v>
+      </c>
+      <c r="AJ7">
+        <v>68.569999999999993</v>
+      </c>
+      <c r="AL7">
+        <v>77.05</v>
+      </c>
+      <c r="AM7">
+        <v>82.35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.54139999999999999</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.80649999999999999</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.4516</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="7">
+        <v>0.61439999999999995</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0.7097</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0.53120000000000001</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3">
+        <v>0.60770000000000002</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0.6452</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0.5161</v>
+      </c>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="V8" s="7">
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="W8" s="7">
+        <v>0.71879999999999999</v>
+      </c>
+      <c r="X8" s="7">
+        <v>0.40620000000000001</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>66.64</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>71.88</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>61.29</v>
+      </c>
+      <c r="AD8">
+        <v>62.88</v>
+      </c>
+      <c r="AE8">
+        <v>71.88</v>
+      </c>
+      <c r="AF8">
+        <v>58.06</v>
+      </c>
+      <c r="AH8">
+        <v>72.3</v>
+      </c>
+      <c r="AI8">
+        <v>78.12</v>
+      </c>
+      <c r="AJ8">
+        <v>61.29</v>
+      </c>
+      <c r="AL8">
+        <v>71.36</v>
+      </c>
+      <c r="AM8">
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.81320000000000003</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.90620000000000001</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.71879999999999999</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="7">
+        <v>0.64290000000000003</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0.7097</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0.5484</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3">
+        <v>0.68179999999999996</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0.871</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0.5161</v>
+      </c>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="V9" s="7">
+        <v>0.90820000000000001</v>
+      </c>
+      <c r="W9" s="7">
+        <v>0.96879999999999999</v>
+      </c>
+      <c r="X9" s="7">
+        <v>0.8387</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>66.67</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>84.38</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>56.25</v>
+      </c>
+      <c r="AD9">
+        <v>64.8</v>
+      </c>
+      <c r="AE9">
+        <v>71.88</v>
+      </c>
+      <c r="AF9">
+        <v>56.25</v>
+      </c>
+      <c r="AH9">
+        <v>71.709999999999994</v>
+      </c>
+      <c r="AI9">
+        <v>78.12</v>
+      </c>
+      <c r="AJ9">
+        <v>62.5</v>
+      </c>
+      <c r="AL9">
+        <v>74.19</v>
+      </c>
+      <c r="AM9">
+        <v>84.38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>21</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.6875</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="7">
+        <v>0.57650000000000001</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0.6774</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0.46879999999999999</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3">
+        <v>0.59240000000000004</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0.8387</v>
+      </c>
+      <c r="P10" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="V10" s="7">
+        <v>0.82650000000000001</v>
+      </c>
+      <c r="W10" s="7">
+        <v>0.96879999999999999</v>
+      </c>
+      <c r="X10" s="7">
+        <v>0.6774</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>65.31</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>78.12</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>56.25</v>
+      </c>
+      <c r="AD10">
+        <v>63.12</v>
+      </c>
+      <c r="AE10">
+        <v>71.88</v>
+      </c>
+      <c r="AF10">
+        <v>53.12</v>
+      </c>
+      <c r="AH10">
+        <v>71.88</v>
+      </c>
+      <c r="AI10">
+        <v>78.12</v>
+      </c>
+      <c r="AJ10">
+        <v>65.62</v>
+      </c>
+      <c r="AL10">
+        <v>75.62</v>
+      </c>
+      <c r="AM10">
+        <v>84.38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>31</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.68240000000000001</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.8125</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.53120000000000001</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="7">
+        <v>0.53149999999999997</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0.63329999999999997</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0.4194</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3">
+        <v>0.60540000000000005</v>
+      </c>
+      <c r="O11" s="3">
+        <v>0.7097</v>
+      </c>
+      <c r="P11" s="3">
+        <v>0.5333</v>
+      </c>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="V11" s="7">
+        <v>0.75739999999999996</v>
+      </c>
+      <c r="W11" s="7">
+        <v>0.875</v>
+      </c>
+      <c r="X11" s="7">
+        <v>0.6774</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>67.19</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>81.25</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>59.38</v>
+      </c>
+      <c r="AD11">
+        <v>65</v>
+      </c>
+      <c r="AE11">
+        <v>75</v>
+      </c>
+      <c r="AF11">
+        <v>53.12</v>
+      </c>
+      <c r="AH11">
+        <v>72.19</v>
+      </c>
+      <c r="AI11">
+        <v>81.25</v>
+      </c>
+      <c r="AJ11">
+        <v>65.62</v>
+      </c>
+      <c r="AL11">
+        <v>75.31</v>
+      </c>
+      <c r="AM11">
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>34</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.57709999999999995</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.36670000000000003</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="7">
+        <v>0.6099</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0.37930000000000003</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3">
+        <v>0.58320000000000005</v>
+      </c>
+      <c r="O12" s="3">
+        <v>0.63329999999999997</v>
+      </c>
+      <c r="P12" s="3">
+        <v>0.51719999999999999</v>
+      </c>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="V12" s="7">
+        <v>0.78410000000000002</v>
+      </c>
+      <c r="W12" s="7">
+        <v>0.93330000000000002</v>
+      </c>
+      <c r="X12" s="7">
+        <v>0.55169999999999997</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>60.67</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>76.67</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>53.33</v>
+      </c>
+      <c r="AD12">
+        <v>65</v>
+      </c>
+      <c r="AE12">
+        <v>70</v>
+      </c>
+      <c r="AF12">
+        <v>56.67</v>
+      </c>
+      <c r="AH12">
+        <v>70.67</v>
+      </c>
+      <c r="AI12">
+        <v>76.67</v>
+      </c>
+      <c r="AJ12">
+        <v>60</v>
+      </c>
+      <c r="AL12">
+        <v>70.67</v>
+      </c>
+      <c r="AM12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>39</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.70169999999999999</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.79310000000000003</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="7">
+        <v>0.62760000000000005</v>
+      </c>
+      <c r="G13" s="7">
+        <v>0.73329999999999995</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0.5333</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3">
+        <v>0.6129</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0.73329999999999995</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0.51719999999999999</v>
+      </c>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="V13" s="7">
+        <v>0.80479999999999996</v>
+      </c>
+      <c r="W13" s="7">
+        <v>0.86670000000000003</v>
+      </c>
+      <c r="X13" s="7">
+        <v>0.72409999999999997</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>68</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>76.67</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>60</v>
+      </c>
+      <c r="AD13">
+        <v>61.67</v>
+      </c>
+      <c r="AE13">
+        <v>66.67</v>
+      </c>
+      <c r="AF13">
+        <v>53.33</v>
+      </c>
+      <c r="AH13">
+        <v>74.33</v>
+      </c>
+      <c r="AI13">
+        <v>86.67</v>
+      </c>
+      <c r="AJ13">
+        <v>66.67</v>
+      </c>
+      <c r="AL13">
+        <v>78</v>
+      </c>
+      <c r="AM13">
+        <v>86.67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="9">
+        <f>AVERAGE(B6:B13)</f>
+        <v>0.62598749999999992</v>
+      </c>
+      <c r="C14" s="9">
+        <f t="shared" ref="C14:T14" si="0">AVERAGE(C6:C13)</f>
+        <v>0.75091249999999998</v>
+      </c>
+      <c r="D14" s="9">
+        <f t="shared" si="0"/>
+        <v>0.49783749999999999</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9">
+        <f t="shared" si="0"/>
+        <v>0.6026125</v>
+      </c>
+      <c r="G14" s="9">
+        <f t="shared" si="0"/>
+        <v>0.70989999999999986</v>
+      </c>
+      <c r="H14" s="9">
+        <f t="shared" si="0"/>
+        <v>0.47307500000000002</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K14" s="9" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L14" s="9" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9">
+        <f t="shared" si="0"/>
+        <v>0.60928749999999998</v>
+      </c>
+      <c r="O14" s="9">
+        <f t="shared" si="0"/>
+        <v>0.71458749999999993</v>
+      </c>
+      <c r="P14" s="9">
+        <f t="shared" si="0"/>
+        <v>0.52231250000000007</v>
+      </c>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S14" s="9" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T14" s="9" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9">
+        <v>0.72270000000000001</v>
+      </c>
+      <c r="W14" s="9">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="X14" s="9">
+        <v>0.58950000000000002</v>
+      </c>
+      <c r="Z14" s="10">
+        <v>67.680000000000007</v>
+      </c>
+      <c r="AA14" s="10">
+        <v>79.819999999999993</v>
+      </c>
+      <c r="AB14" s="10">
+        <v>58.83</v>
+      </c>
+      <c r="AD14" s="4">
+        <v>64.59</v>
+      </c>
+      <c r="AE14" s="4">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="AF14" s="4">
+        <v>55.53</v>
+      </c>
+      <c r="AH14" s="4">
+        <v>72.52</v>
+      </c>
+      <c r="AI14" s="4">
+        <v>80.3</v>
+      </c>
+      <c r="AJ14" s="4">
+        <v>64.489999999999995</v>
+      </c>
+      <c r="AL14" s="4">
+        <v>74.06</v>
+      </c>
+      <c r="AM14" s="4">
+        <v>82.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" t="s">
+        <v>15</v>
+      </c>
+      <c r="N18" t="s">
+        <v>20</v>
+      </c>
+      <c r="P18" t="s">
+        <v>15</v>
+      </c>
+      <c r="R18" t="s">
+        <v>21</v>
+      </c>
+      <c r="T18" t="s">
+        <v>15</v>
+      </c>
+      <c r="V18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="X18" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>13</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" t="s">
+        <v>7</v>
+      </c>
+      <c r="J19" t="s">
+        <v>5</v>
+      </c>
+      <c r="K19" t="s">
+        <v>6</v>
+      </c>
+      <c r="L19" t="s">
+        <v>7</v>
+      </c>
+      <c r="N19" t="s">
+        <v>5</v>
+      </c>
+      <c r="O19" t="s">
+        <v>6</v>
+      </c>
+      <c r="P19" t="s">
+        <v>7</v>
+      </c>
+      <c r="R19" t="s">
+        <v>5</v>
+      </c>
+      <c r="S19" t="s">
+        <v>6</v>
+      </c>
+      <c r="T19" t="s">
+        <v>7</v>
+      </c>
+      <c r="V19" t="s">
+        <v>5</v>
+      </c>
+      <c r="W19" t="s">
+        <v>6</v>
+      </c>
+      <c r="X19" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="V20" s="7">
+        <v>0.49359999999999998</v>
+      </c>
+      <c r="W20" s="7">
+        <v>0.60709999999999997</v>
+      </c>
+      <c r="X20" s="7">
+        <v>0.31030000000000002</v>
+      </c>
+      <c r="Z20">
+        <v>63.19</v>
+      </c>
+      <c r="AA20">
+        <v>79.31</v>
+      </c>
+      <c r="AB20">
+        <v>55.17</v>
+      </c>
+      <c r="AD20">
+        <v>65.53</v>
+      </c>
+      <c r="AE20">
+        <v>79.31</v>
+      </c>
+      <c r="AF20">
+        <v>51.72</v>
+      </c>
+      <c r="AH20">
+        <v>73.62</v>
+      </c>
+      <c r="AI20">
+        <v>75.86</v>
+      </c>
+      <c r="AL20">
+        <v>68.34</v>
+      </c>
+      <c r="AM20">
+        <v>82.76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="V21" s="7">
+        <v>0.53090000000000004</v>
+      </c>
+      <c r="W21" s="7">
+        <v>0.6552</v>
+      </c>
+      <c r="X21" s="7">
+        <v>0.39290000000000003</v>
+      </c>
+      <c r="Z21">
+        <v>63.55</v>
+      </c>
+      <c r="AA21">
+        <v>72.41</v>
+      </c>
+      <c r="AB21">
+        <v>48.28</v>
+      </c>
+      <c r="AD21">
+        <v>67.709999999999994</v>
+      </c>
+      <c r="AE21">
+        <v>79.31</v>
+      </c>
+      <c r="AF21">
+        <v>58.62</v>
+      </c>
+      <c r="AH21">
+        <v>70.459999999999994</v>
+      </c>
+      <c r="AI21">
+        <v>79.31</v>
+      </c>
+      <c r="AL21">
+        <v>71.510000000000005</v>
+      </c>
+      <c r="AM21">
+        <v>75.86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="V22" s="7">
+        <v>0.52129999999999999</v>
+      </c>
+      <c r="W22" s="7">
+        <v>0.64290000000000003</v>
+      </c>
+      <c r="X22" s="7">
+        <v>0.37930000000000003</v>
+      </c>
+      <c r="Z22">
+        <v>65.3</v>
+      </c>
+      <c r="AA22">
+        <v>75.86</v>
+      </c>
+      <c r="AB22">
+        <v>51.72</v>
+      </c>
+      <c r="AD22">
+        <v>69.77</v>
+      </c>
+      <c r="AE22">
+        <v>86.21</v>
+      </c>
+      <c r="AF22">
+        <v>60.71</v>
+      </c>
+      <c r="AH22">
+        <v>72.959999999999994</v>
+      </c>
+      <c r="AI22">
+        <v>82.76</v>
+      </c>
+      <c r="AL22">
+        <v>71.180000000000007</v>
+      </c>
+      <c r="AM22">
+        <v>79.31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
+      <c r="V23" s="7">
+        <v>0.4667</v>
+      </c>
+      <c r="W23" s="7">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="X23" s="7">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="Z23">
+        <v>65.83</v>
+      </c>
+      <c r="AA23">
+        <v>83.33</v>
+      </c>
+      <c r="AB23">
+        <v>58.33</v>
+      </c>
+      <c r="AD23">
+        <v>65</v>
+      </c>
+      <c r="AE23">
+        <v>75</v>
+      </c>
+      <c r="AF23">
+        <v>50</v>
+      </c>
+      <c r="AH23">
+        <v>72.5</v>
+      </c>
+      <c r="AI23">
+        <v>79.17</v>
+      </c>
+      <c r="AL23">
+        <v>71.67</v>
+      </c>
+      <c r="AM23">
+        <v>83.33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>5</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="V24" s="7">
+        <v>0.53849999999999998</v>
+      </c>
+      <c r="W24" s="7">
+        <v>0.75860000000000005</v>
+      </c>
+      <c r="X24" s="7">
+        <v>0.4138</v>
+      </c>
+      <c r="Z24">
+        <v>62.86</v>
+      </c>
+      <c r="AA24">
+        <v>71.430000000000007</v>
+      </c>
+      <c r="AB24">
+        <v>51.72</v>
+      </c>
+      <c r="AD24">
+        <v>67.73</v>
+      </c>
+      <c r="AE24">
+        <v>75.86</v>
+      </c>
+      <c r="AF24">
+        <v>55.17</v>
+      </c>
+      <c r="AH24">
+        <v>71.849999999999994</v>
+      </c>
+      <c r="AI24">
+        <v>79.31</v>
+      </c>
+      <c r="AL24">
+        <v>73.650000000000006</v>
+      </c>
+      <c r="AM24">
+        <v>82.14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>6</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7"/>
+      <c r="V25" s="7">
+        <v>0.47160000000000002</v>
+      </c>
+      <c r="W25" s="7">
+        <v>0.6552</v>
+      </c>
+      <c r="X25" s="7">
+        <v>0.31030000000000002</v>
+      </c>
+      <c r="Z25">
+        <v>63.17</v>
+      </c>
+      <c r="AA25">
+        <v>72.41</v>
+      </c>
+      <c r="AB25">
+        <v>53.57</v>
+      </c>
+      <c r="AD25">
+        <v>68.760000000000005</v>
+      </c>
+      <c r="AE25">
+        <v>79.31</v>
+      </c>
+      <c r="AF25">
+        <v>62.07</v>
+      </c>
+      <c r="AH25">
+        <v>70.180000000000007</v>
+      </c>
+      <c r="AI25">
+        <v>82.14</v>
+      </c>
+      <c r="AL25">
+        <v>73.33</v>
+      </c>
+      <c r="AM25">
+        <v>85.71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>7</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="7"/>
+      <c r="T26" s="7"/>
+      <c r="V26" s="7">
+        <v>0.58209999999999995</v>
+      </c>
+      <c r="W26" s="7">
+        <v>0.75860000000000005</v>
+      </c>
+      <c r="X26" s="7">
+        <v>0.39290000000000003</v>
+      </c>
+      <c r="Z26">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="AA26">
+        <v>72.41</v>
+      </c>
+      <c r="AB26">
+        <v>57.14</v>
+      </c>
+      <c r="AD26">
+        <v>67.319999999999993</v>
+      </c>
+      <c r="AE26">
+        <v>82.76</v>
+      </c>
+      <c r="AF26">
+        <v>57.14</v>
+      </c>
+      <c r="AH26">
+        <v>71.88</v>
+      </c>
+      <c r="AI26">
+        <v>79.31</v>
+      </c>
+      <c r="AL26">
+        <v>73.61</v>
+      </c>
+      <c r="AM26">
+        <v>79.31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>8</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="7"/>
+      <c r="T27" s="7"/>
+      <c r="V27" s="7">
+        <v>0.42349999999999999</v>
+      </c>
+      <c r="W27" s="7">
+        <v>0.55169999999999997</v>
+      </c>
+      <c r="X27" s="7">
+        <v>0.31030000000000002</v>
+      </c>
+      <c r="Z27">
+        <v>65.959999999999994</v>
+      </c>
+      <c r="AA27">
+        <v>79.31</v>
+      </c>
+      <c r="AB27">
+        <v>53.57</v>
+      </c>
+      <c r="AD27">
+        <v>70.14</v>
+      </c>
+      <c r="AE27">
+        <v>75.86</v>
+      </c>
+      <c r="AF27">
+        <v>62.07</v>
+      </c>
+      <c r="AH27">
+        <v>73.28</v>
+      </c>
+      <c r="AI27">
+        <v>79.31</v>
+      </c>
+      <c r="AL27">
+        <v>72.88</v>
+      </c>
+      <c r="AM27">
+        <v>79.31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>9</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
+      <c r="S28" s="7"/>
+      <c r="T28" s="7"/>
+      <c r="V28" s="7">
+        <v>0.52429999999999999</v>
+      </c>
+      <c r="W28" s="7">
+        <v>0.60709999999999997</v>
+      </c>
+      <c r="X28" s="7">
+        <v>0.42859999999999998</v>
+      </c>
+      <c r="Z28">
+        <v>63.87</v>
+      </c>
+      <c r="AA28">
+        <v>75.86</v>
+      </c>
+      <c r="AB28">
+        <v>57.14</v>
+      </c>
+      <c r="AD28">
+        <v>62.54</v>
+      </c>
+      <c r="AE28">
+        <v>75.86</v>
+      </c>
+      <c r="AF28">
+        <v>51.72</v>
+      </c>
+      <c r="AH28">
+        <v>75.34</v>
+      </c>
+      <c r="AI28">
+        <v>75.34</v>
+      </c>
+      <c r="AL28">
+        <v>70.87</v>
+      </c>
+      <c r="AM28">
+        <v>78.569999999999993</v>
+      </c>
+    </row>
+    <row r="29" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="8" t="e">
+        <f>AVERAGE(B20:B28)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C29" s="8" t="e">
+        <f t="shared" ref="C29:H29" si="1">AVERAGE(C20:C28)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D29" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G29" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H29" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8" t="e">
+        <f t="shared" ref="J29:L29" si="2">AVERAGE(J20:J28)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K29" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L29" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8" t="e">
+        <f t="shared" ref="N29:P29" si="3">AVERAGE(N20:N28)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O29" s="8" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P29" s="8" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8" t="e">
+        <f t="shared" ref="R29:T29" si="4">AVERAGE(R20:R28)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S29" s="8" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T29" s="8" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V29" s="9">
+        <v>0.50580000000000003</v>
+      </c>
+      <c r="W29" s="9">
+        <v>0.65590000000000004</v>
+      </c>
+      <c r="X29" s="9">
+        <v>0.36349999999999999</v>
+      </c>
+      <c r="Z29" s="4">
+        <v>64.290000000000006</v>
+      </c>
+      <c r="AA29" s="4">
+        <v>75.81</v>
+      </c>
+      <c r="AB29" s="4">
+        <v>54.07</v>
+      </c>
+      <c r="AD29" s="4">
+        <v>67.17</v>
+      </c>
+      <c r="AE29" s="4">
+        <v>78.83</v>
+      </c>
+      <c r="AF29" s="4">
+        <v>56.58</v>
+      </c>
+      <c r="AH29" s="4">
+        <v>72.45</v>
+      </c>
+      <c r="AI29" s="4">
+        <v>79.17</v>
+      </c>
+      <c r="AL29" s="4">
+        <v>71.89</v>
+      </c>
+      <c r="AM29" s="4">
+        <v>80.7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="6"/>
       <c r="S32" s="3"/>
       <c r="T32" s="3"/>
     </row>
@@ -2530,9 +5162,7 @@
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
-      <c r="O33" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="O33" s="6"/>
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
       <c r="R33" s="3"/>
@@ -2679,83 +5309,88 @@
       <c r="T40" s="3"/>
     </row>
     <row r="41" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
-      <c r="K41" s="6"/>
-      <c r="L41" s="6"/>
-      <c r="M41" s="6"/>
-      <c r="N41" s="6"/>
-      <c r="O41" s="6"/>
-      <c r="P41" s="6"/>
-      <c r="Q41" s="6"/>
-      <c r="R41" s="6"/>
-      <c r="S41" s="6"/>
-      <c r="T41" s="6"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5"/>
+      <c r="R41" s="5"/>
+      <c r="S41" s="5"/>
+      <c r="T41" s="5"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="U37">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="greaterThan">
+      <formula>60</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="V6:V13">
-    <cfRule type="cellIs" dxfId="14" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="greaterThan">
       <formula>0.7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="14" operator="greaterThan">
+      <formula>0.7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V20:V27">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="greaterThan">
+      <formula>0.7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="7" operator="greaterThan">
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z6:Z13">
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="11" operator="greaterThan">
       <formula>70</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="13" operator="greaterThan">
+      <formula>70</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z20:Z28">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="greaterThan">
       <formula>70</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD6:AD13">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="10" operator="greaterThan">
+      <formula>70</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD20:AD28">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
       <formula>70</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH6:AH13">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="9" operator="greaterThan">
+      <formula>70</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH20:AH28">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
       <formula>70</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL6:AL13">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="greaterThan">
-      <formula>70</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V20:V27">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="greaterThan">
-      <formula>0.7</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="greaterThan">
-      <formula>0.7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z20:Z28">
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="greaterThan">
-      <formula>70</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD20:AD28">
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="greaterThan">
-      <formula>70</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH20:AH28">
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="8" operator="greaterThan">
       <formula>70</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL20:AL28">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
       <formula>70</formula>
     </cfRule>
   </conditionalFormatting>
